--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value150.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value150.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.535310531718719</v>
+        <v>1.272653698921204</v>
       </c>
       <c r="B1">
-        <v>2.636663556793736</v>
+        <v>4.629242420196533</v>
       </c>
       <c r="C1">
-        <v>2.721124009474215</v>
+        <v>3.978886127471924</v>
       </c>
       <c r="D1">
-        <v>1.275178457752434</v>
+        <v>1.457034111022949</v>
       </c>
       <c r="E1">
-        <v>0.7444541141854055</v>
+        <v>0.968996524810791</v>
       </c>
     </row>
   </sheetData>
